--- a/document/DB Design.xlsx
+++ b/document/DB Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="146">
   <si>
     <t>Sid</t>
   </si>
@@ -101,9 +101,6 @@
     <t>个人图片id</t>
   </si>
   <si>
-    <t>用户偏好设定id</t>
-  </si>
-  <si>
     <t>Varchar(500)</t>
   </si>
   <si>
@@ -438,6 +435,33 @@
   </si>
   <si>
     <t>Varchar(20)</t>
+  </si>
+  <si>
+    <t>message_id</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>UpdateDate</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>用户偏好设定</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Varchar(30)</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>加密</t>
   </si>
 </sst>
 </file>
@@ -820,7 +844,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,10 +903,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,10 +945,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,10 +959,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,10 +973,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,10 +987,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,10 +1001,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -990,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1040,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1054,13 +1078,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,13 +1106,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
         <v>122</v>
       </c>
-      <c r="C6" t="s">
-        <v>124</v>
-      </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,13 +1120,27 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
         <v>125</v>
       </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
+      <c r="D8" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1153,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,16 +1200,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
         <v>127</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
         <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,13 +1217,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1193,13 +1231,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1210,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,13 +1299,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1276,16 +1314,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1293,28 +1331,30 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1322,34 +1362,32 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1357,53 +1395,100 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>99</v>
-      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1445,10 +1530,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -1460,16 +1545,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1480,13 +1565,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1494,16 +1579,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1511,13 +1596,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1526,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -1541,13 +1626,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1556,13 +1641,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1571,13 +1656,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1586,13 +1671,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1601,16 +1686,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1618,13 +1703,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1674,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -1689,10 +1774,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
@@ -1704,16 +1789,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1736,10 +1821,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -1751,13 +1836,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1804,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -1819,13 +1904,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1834,13 +1919,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1849,13 +1934,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1902,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -1917,10 +2002,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
@@ -1935,10 +2020,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1947,13 +2032,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2000,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2014,16 +2099,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>85</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2031,16 +2116,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2086,10 +2171,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2100,10 +2185,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -2114,13 +2199,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2128,13 +2213,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,13 +2227,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2156,16 +2241,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
         <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2173,16 +2258,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>115</v>
-      </c>
-      <c r="E8" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2280,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,10 +2313,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2256,13 +2341,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/document/DB Design.xlsx
+++ b/document/DB Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="149">
   <si>
     <t>Sid</t>
   </si>
@@ -245,9 +245,6 @@
     <t>varchar(500)</t>
   </si>
   <si>
-    <t>评论者</t>
-  </si>
-  <si>
     <t>评论时间</t>
   </si>
   <si>
@@ -462,6 +459,18 @@
   </si>
   <si>
     <t>加密</t>
+  </si>
+  <si>
+    <t>create_user_name</t>
+  </si>
+  <si>
+    <t>评论者id</t>
+  </si>
+  <si>
+    <t>评论者用户名</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
   </si>
 </sst>
 </file>
@@ -945,10 +954,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1001,10 +1010,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -1081,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -1095,7 +1104,7 @@
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -1106,10 +1115,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
@@ -1120,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>72</v>
@@ -1134,13 +1143,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
         <v>124</v>
       </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1200,16 +1209,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
         <v>126</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
         <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1234,7 +1243,7 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
@@ -1250,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1299,13 +1308,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1314,16 +1323,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,10 +1346,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1354,7 +1363,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1366,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -1401,7 +1410,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -1444,16 +1453,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,13 +1470,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1476,13 +1485,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1579,16 +1588,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1686,16 +1695,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1703,10 +1712,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>37</v>
@@ -1723,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1833,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -1836,15 +1845,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1904,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -1919,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -1937,7 +1961,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>33</v>
@@ -1987,10 +2011,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -2020,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>72</v>
@@ -2035,7 +2059,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>51</v>
@@ -2085,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2099,16 +2123,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
         <v>84</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,16 +2140,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
         <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2171,10 +2195,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2199,10 +2223,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
@@ -2213,10 +2237,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
@@ -2241,16 +2265,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
         <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,16 +2282,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
         <v>113</v>
       </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>114</v>
-      </c>
-      <c r="E8" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +2368,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>

--- a/document/DB Design.xlsx
+++ b/document/DB Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,16 @@
     <sheet name="stand_realtime_location" sheetId="9" r:id="rId5"/>
     <sheet name="stand_owner_message" sheetId="5" r:id="rId6"/>
     <sheet name="stand_type" sheetId="6" r:id="rId7"/>
-    <sheet name="stand_location" sheetId="7" r:id="rId8"/>
-    <sheet name="user_link_stand" sheetId="8" r:id="rId9"/>
-    <sheet name="instant_message" sheetId="10" r:id="rId10"/>
-    <sheet name="stand_images" sheetId="12" r:id="rId11"/>
+    <sheet name="user_link_stand" sheetId="8" r:id="rId8"/>
+    <sheet name="instant_message" sheetId="10" r:id="rId9"/>
+    <sheet name="stand_images" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="142">
   <si>
     <t>Sid</t>
   </si>
@@ -113,9 +112,6 @@
     <t>摊位名称</t>
   </si>
   <si>
-    <t>不填可自动生成</t>
-  </si>
-  <si>
     <t>stand_name</t>
   </si>
   <si>
@@ -218,12 +214,6 @@
     <t>摊主留言</t>
   </si>
   <si>
-    <t>stand_location</t>
-  </si>
-  <si>
-    <t>摊位位置表</t>
-  </si>
-  <si>
     <t>customer_message_id</t>
   </si>
   <si>
@@ -302,12 +292,6 @@
     <t>摊位细分类型</t>
   </si>
   <si>
-    <t>stand_location_id</t>
-  </si>
-  <si>
-    <t>摊位位置id</t>
-  </si>
-  <si>
     <t>province_city_area</t>
   </si>
   <si>
@@ -320,36 +304,12 @@
     <t>Json {"province":"浙江","city":"杭州"，“area”：“滨江区”}</t>
   </si>
   <si>
-    <t>摊主默认从个人信息中提取，但可修改，客户则自行创建</t>
-  </si>
-  <si>
-    <t>location_x</t>
-  </si>
-  <si>
-    <t>location_y</t>
-  </si>
-  <si>
-    <t>经度</t>
-  </si>
-  <si>
-    <t>维度</t>
-  </si>
-  <si>
     <t>user_link_stand</t>
   </si>
   <si>
     <t>客户关注</t>
   </si>
   <si>
-    <t>week_workingday</t>
-  </si>
-  <si>
-    <t>sample 1,2,3,5</t>
-  </si>
-  <si>
-    <t>每周工作日</t>
-  </si>
-  <si>
     <t>stand_realtime_location</t>
   </si>
   <si>
@@ -362,115 +322,133 @@
     <t>realtime_location_y</t>
   </si>
   <si>
-    <t>working_time</t>
+    <t>关注时间</t>
+  </si>
+  <si>
+    <t>信息内容</t>
+  </si>
+  <si>
+    <t>信息时间</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>action_type</t>
+  </si>
+  <si>
+    <t>点击时的动作代码</t>
+  </si>
+  <si>
+    <t>动作类型</t>
+  </si>
+  <si>
+    <t>action_parameter</t>
+  </si>
+  <si>
+    <t>额外参数</t>
+  </si>
+  <si>
+    <t>image_id</t>
+  </si>
+  <si>
+    <t>图片id</t>
+  </si>
+  <si>
+    <t>未定，将链接到云图片id</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>realtime_location_active</t>
+  </si>
+  <si>
+    <t>实时位置</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>注册名</t>
+  </si>
+  <si>
+    <t>Varchar(10)</t>
+  </si>
+  <si>
+    <t>Varchar(20)</t>
+  </si>
+  <si>
+    <t>message_id</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>UpdateDate</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>用户偏好设定</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Varchar(30)</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>加密</t>
+  </si>
+  <si>
+    <t>create_user_name</t>
+  </si>
+  <si>
+    <t>评论者id</t>
+  </si>
+  <si>
+    <t>评论者用户名</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>tags</t>
   </si>
   <si>
     <t>varchar(200)</t>
   </si>
   <si>
-    <t>Json, {"slotA":"9:30-10:30", "slotB":"","slotC":""}</t>
-  </si>
-  <si>
-    <t>每天的工作时间</t>
-  </si>
-  <si>
-    <t>关注时间</t>
-  </si>
-  <si>
-    <t>信息内容</t>
-  </si>
-  <si>
-    <t>信息时间</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>action_type</t>
-  </si>
-  <si>
-    <t>点击时的动作代码</t>
-  </si>
-  <si>
-    <t>动作类型</t>
-  </si>
-  <si>
-    <t>action_parameter</t>
-  </si>
-  <si>
-    <t>额外参数</t>
-  </si>
-  <si>
-    <t>image_id</t>
-  </si>
-  <si>
-    <t>图片id</t>
-  </si>
-  <si>
-    <t>未定，将链接到云图片id</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>realtime_location_active</t>
-  </si>
-  <si>
-    <t>实时位置</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>注册名</t>
-  </si>
-  <si>
-    <t>Varchar(10)</t>
-  </si>
-  <si>
-    <t>Varchar(20)</t>
-  </si>
-  <si>
-    <t>message_id</t>
-  </si>
-  <si>
-    <t>CreateDate</t>
-  </si>
-  <si>
-    <t>UpdateDate</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>用户偏好设定</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Varchar(30)</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>加密</t>
-  </si>
-  <si>
-    <t>create_user_name</t>
-  </si>
-  <si>
-    <t>评论者id</t>
-  </si>
-  <si>
-    <t>评论者用户名</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
+    <t>检索关键字</t>
+  </si>
+  <si>
+    <t>不填可自动生成， 对应地图title</t>
+  </si>
+  <si>
+    <t>creator_type</t>
+  </si>
+  <si>
+    <t>首饰，服装，美食，杂货等</t>
+  </si>
+  <si>
+    <t>position_x</t>
+  </si>
+  <si>
+    <t>position_y</t>
+  </si>
+  <si>
+    <t>位置 y</t>
+  </si>
+  <si>
+    <t>位置 x</t>
   </si>
 </sst>
 </file>
@@ -850,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,10 +890,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,24 +904,24 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,10 +932,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,10 +946,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,24 +974,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1023,10 +987,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K20" sqref="K20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1073,13 +1037,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,13 +1054,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,68 +1068,27 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,76 +1117,224 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
+      <c r="D13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -1308,31 +1382,33 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1340,16 +1416,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1357,28 +1433,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1386,48 +1464,44 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1435,78 +1509,91 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -1554,33 +1641,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,30 +1673,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1620,13 +1703,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1635,238 +1718,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1928,13 +1786,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1943,13 +1801,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1958,13 +1816,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2011,10 +1869,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -2044,10 +1902,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -2056,13 +1914,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2073,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2123,16 +1981,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>81</v>
       </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2140,16 +1998,30 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>90</v>
+      <c r="E5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2158,6 +2030,86 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2195,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2209,10 +2161,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -2223,13 +2175,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2237,13 +2189,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2251,13 +2203,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,16 +2217,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
         <v>105</v>
       </c>
-      <c r="C7" t="s">
-        <v>107</v>
-      </c>
       <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,96 +2231,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/document/DB Design.xlsx
+++ b/document/DB Design.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="1" r:id="rId1"/>
-    <sheet name="user_info" sheetId="2" r:id="rId2"/>
-    <sheet name="stand_info" sheetId="3" r:id="rId3"/>
-    <sheet name="stand_customer_mark" sheetId="4" r:id="rId4"/>
-    <sheet name="stand_realtime_location" sheetId="9" r:id="rId5"/>
+    <sheet name="auth_key_hashmap" sheetId="13" r:id="rId2"/>
+    <sheet name="user_info" sheetId="2" r:id="rId3"/>
+    <sheet name="stand_info" sheetId="3" r:id="rId4"/>
+    <sheet name="stand_customer_mark" sheetId="4" r:id="rId5"/>
     <sheet name="stand_owner_message" sheetId="5" r:id="rId6"/>
     <sheet name="stand_type" sheetId="6" r:id="rId7"/>
     <sheet name="user_link_stand" sheetId="8" r:id="rId8"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="156">
   <si>
     <t>Sid</t>
   </si>
@@ -310,18 +310,6 @@
     <t>客户关注</t>
   </si>
   <si>
-    <t>stand_realtime_location</t>
-  </si>
-  <si>
-    <t>摊位实时地点</t>
-  </si>
-  <si>
-    <t>realtime_location_x</t>
-  </si>
-  <si>
-    <t>realtime_location_y</t>
-  </si>
-  <si>
     <t>关注时间</t>
   </si>
   <si>
@@ -449,6 +437,60 @@
   </si>
   <si>
     <t>位置 x</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>auth_key_hashmap</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+  </si>
+  <si>
+    <t>IsDeleted</t>
+  </si>
+  <si>
+    <t>删除标志</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>Varchar(50)</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>hash 值</t>
+  </si>
+  <si>
+    <t>isdeleted</t>
+  </si>
+  <si>
+    <t>链接id</t>
+  </si>
+  <si>
+    <t>自增长</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>是否删除</t>
+  </si>
+  <si>
+    <t>user_link_id</t>
   </si>
 </sst>
 </file>
@@ -831,11 +873,12 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
@@ -971,17 +1014,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -989,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,10 +1067,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1037,16 +1081,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1071,7 +1115,7 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
@@ -1085,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,28 +1165,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1151,16 +1267,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1174,10 +1290,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1191,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1203,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -1298,13 +1414,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1313,15 +1429,26 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1329,7 +1456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -1391,7 +1518,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1399,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -1425,7 +1552,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1540,10 +1667,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
@@ -1555,10 +1682,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>60</v>
@@ -1570,10 +1697,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -1588,12 +1715,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1818,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -1703,13 +1830,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1733,12 +1860,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -1786,13 +1913,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1801,13 +1928,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1819,10 +1946,10 @@
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1831,12 +1958,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,76 +1992,78 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,13 +2096,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1981,16 +2113,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1998,13 +2127,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2012,96 +2141,27 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -2178,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>69</v>
@@ -2192,7 +2252,7 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -2203,10 +2263,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>69</v>
@@ -2217,10 +2277,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>69</v>
@@ -2231,10 +2291,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>91</v>

--- a/document/DB Design.xlsx
+++ b/document/DB Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="159">
   <si>
     <t>Sid</t>
   </si>
@@ -491,6 +491,15 @@
   </si>
   <si>
     <t>user_link_id</t>
+  </si>
+  <si>
+    <t>决定点击消息时发生的事件</t>
+  </si>
+  <si>
+    <t>事件类型，如跳转，弹框</t>
+  </si>
+  <si>
+    <t>点击传递给目标的参数</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2173,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,6 +2280,9 @@
       <c r="D6" t="s">
         <v>69</v>
       </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2285,6 +2297,9 @@
       <c r="D7" t="s">
         <v>69</v>
       </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2298,6 +2313,9 @@
       </c>
       <c r="D8" t="s">
         <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/document/DB Design.xlsx
+++ b/document/DB Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
   <si>
     <t>Sid</t>
   </si>
@@ -145,9 +145,6 @@
     <t>手机联系方式</t>
   </si>
   <si>
-    <t>web_chart</t>
-  </si>
-  <si>
     <t>微信号</t>
   </si>
   <si>
@@ -500,16 +497,38 @@
   </si>
   <si>
     <t>点击传递给目标的参数</t>
+  </si>
+  <si>
+    <t>web_chat</t>
+  </si>
+  <si>
+    <t>参看详细*</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>默认显示附近的范围 - 100， 200 ，300， 500</t>
+  </si>
+  <si>
+    <t>商户创建摊位默认开启</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -567,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,6 +594,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,10 +993,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,10 +1007,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -998,10 +1021,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1012,10 +1035,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,13 +1046,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1090,16 +1113,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1107,13 +1130,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,13 +1144,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1164,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="A1:XFD1048576"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,16 +1197,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1191,16 +1214,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1210,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,13 +1284,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1276,16 +1299,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1299,10 +1322,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1316,7 +1339,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1328,12 +1351,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1363,10 +1388,10 @@
         <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1374,10 +1399,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -1389,16 +1414,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1406,16 +1431,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1423,13 +1448,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1438,25 +1463,42 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>142</v>
+      <c r="D15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1527,7 +1569,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -1544,7 +1586,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1561,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,16 +1611,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>31</v>
@@ -1601,10 +1643,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -1616,13 +1658,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1631,13 +1673,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1646,10 +1688,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
@@ -1661,13 +1703,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1676,13 +1718,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -1691,13 +1733,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -1706,10 +1748,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -1762,10 +1804,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -1792,16 +1834,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,13 +1851,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1824,10 +1866,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -1839,13 +1881,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1854,13 +1896,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1907,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -1940,10 +1982,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1952,13 +1994,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2005,10 +2047,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2019,16 +2061,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,13 +2078,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,16 +2092,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2105,16 +2147,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2150,13 +2192,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2164,13 +2206,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2182,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2247,10 +2289,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,13 +2300,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,16 +2314,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,16 +2331,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2306,16 +2348,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/document/DB Design.xlsx
+++ b/document/DB Design.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="165">
   <si>
     <t>Sid</t>
   </si>
@@ -512,6 +512,12 @@
   </si>
   <si>
     <t>商户创建摊位默认开启</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>邮箱</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,65 +1388,63 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>91</v>
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1448,25 +1452,27 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>117</v>
@@ -1474,30 +1480,45 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>162</v>
       </c>
     </row>

--- a/document/DB Design.xlsx
+++ b/document/DB Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>摊位用户评分</t>
   </si>
   <si>
-    <t>1- 顾客创建 2 摊主创建</t>
-  </si>
-  <si>
     <t>mark</t>
   </si>
   <si>
@@ -518,6 +515,9 @@
   </si>
   <si>
     <t>邮箱</t>
+  </si>
+  <si>
+    <t>0- 顾客创建 1摊主创建</t>
   </si>
 </sst>
 </file>
@@ -999,10 +999,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,10 +1027,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,10 +1041,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1052,13 +1052,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1119,16 +1119,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
         <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,13 +1150,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1203,16 +1203,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1220,16 +1220,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1241,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1290,13 +1290,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1305,16 +1305,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1328,10 +1328,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1357,13 +1357,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,10 +1388,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
@@ -1409,7 +1409,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>41</v>
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
@@ -1452,16 +1452,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1469,13 +1469,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1484,13 +1484,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1499,27 +1499,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
         <v>160</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,7 +1590,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -1607,7 +1607,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1632,16 +1632,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,13 +1724,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1739,13 +1739,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -1754,13 +1754,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -1769,10 +1769,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -1825,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -1855,16 +1855,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1872,13 +1872,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1890,7 +1890,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -1902,13 +1902,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1920,7 +1920,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>49</v>
@@ -1970,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -2003,10 +2003,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -2018,7 +2018,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>49</v>
@@ -2068,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2082,16 +2082,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2099,13 +2099,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2113,16 +2113,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2168,16 +2168,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -2227,13 +2227,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2279,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2310,10 +2310,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -2335,16 +2335,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2352,16 +2352,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2369,16 +2369,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
         <v>101</v>
       </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
